--- a/ensemble_algorithm/ensemble_credit_approval_metrics.xlsx
+++ b/ensemble_algorithm/ensemble_credit_approval_metrics.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.9280</t>
+          <t>0.9234</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.9207</t>
+          <t>0.9172</t>
         </is>
       </c>
     </row>
